--- a/templates/report_invoices.xlsx
+++ b/templates/report_invoices.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Дата отчета </t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>${invoices_partial_paid}</t>
-  </si>
-  <si>
-    <t>powered by ccs.msk.ru</t>
   </si>
   <si>
     <t>Отчет по выставленным и плаченным счетам за период</t>
@@ -660,7 +657,9 @@
   </sheetPr>
   <dimension ref="A2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -679,7 +678,7 @@
   <sheetData>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>0</v>
@@ -802,7 +801,7 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="17" t="s">
@@ -810,9 +809,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J15" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="J15" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
